--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,100 +40,112 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
+    <t>falling</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>lowest</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sick</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>empty</t>
@@ -142,9 +154,6 @@
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -154,202 +163,202 @@
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
   </si>
 </sst>
 </file>
@@ -715,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -776,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -794,31 +803,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,13 +835,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -868,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.821917808219178</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <v>0.8846153846153846</v>
@@ -1097,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>0.875</v>
@@ -1147,16 +1156,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8666666666666667</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.72</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.8407310704960835</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>322</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>322</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,38 +1285,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>0.8125</v>
+      </c>
+      <c r="L13">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13">
-        <v>0.8301886792452831</v>
-      </c>
-      <c r="L13">
-        <v>88</v>
-      </c>
-      <c r="M13">
-        <v>88</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1447,16 +1456,16 @@
         <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1494,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.576271186440678</v>
+        <v>0.575</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.7708333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1597,16 +1606,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1635,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.55</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.76875</v>
       </c>
       <c r="L20">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="M20">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5490196078431373</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5445736434108527</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C22">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="D22">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5291005291005291</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1818,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.725</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,37 +1885,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5033557046979866</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D25">
-        <v>75</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>74</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K25">
-        <v>0.7222222222222222</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1935,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +1985,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.44</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.7037037037037037</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2018,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,37 +2035,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4358974358974359</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>17</v>
       </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>22</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.6976744186046512</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2068,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2085,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4358974358974359</v>
+        <v>0.4375</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2094,19 +2103,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2135,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4193548387096774</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.6808510638297872</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
         <v>32</v>
@@ -2168,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2176,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4193548387096774</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2194,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.6441176470588236</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L31">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2218,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2226,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3928571428571428</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2244,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.6428571428571429</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2268,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2276,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3818181818181818</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2294,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2318,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2326,13 +2335,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3272727272727273</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2344,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2368,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2376,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2394,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.62</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2418,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2426,13 +2435,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2936507936507937</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2444,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2468,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2476,13 +2485,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2727272727272727</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2494,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.6135593220338983</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L37">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="M37">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2518,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2526,13 +2535,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2544,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.6086956521739131</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
         <v>14</v>
@@ -2568,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2576,13 +2585,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1689008042895442</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C39">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2594,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.5899581589958159</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L39">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M39">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2618,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2626,13 +2635,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07333333333333333</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2644,19 +2653,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2668,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2676,37 +2685,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01517107811491285</v>
+        <v>0.2375</v>
       </c>
       <c r="C41">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3051</v>
+        <v>61</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2718,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2726,37 +2735,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01291989664082687</v>
+        <v>0.1639784946236559</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1146</v>
+        <v>311</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2768,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2776,37 +2785,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01262862488306829</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2111</v>
+        <v>274</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.5692307692307692</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2818,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2826,37 +2835,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004421983575489577</v>
+        <v>0.01808785529715762</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E44">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3152</v>
+        <v>1140</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2868,21 +2877,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.0164463076426959</v>
+      </c>
+      <c r="C45">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>0.11</v>
+      </c>
+      <c r="F45">
+        <v>0.89</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3050</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.5393258426966292</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2894,15 +2927,39 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.01358950328022493</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>0.24</v>
+      </c>
+      <c r="F46">
+        <v>0.76</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2105</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L46">
         <v>13</v>
@@ -2920,21 +2977,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2946,21 +3003,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.4814814814814815</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2972,21 +3029,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.4814814814814815</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2998,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.4705882352941176</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3024,21 +3081,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.4642857142857143</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3050,15 +3107,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="L52">
         <v>18</v>
@@ -3076,21 +3133,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.4222222222222222</v>
+        <v>0.359375</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3102,21 +3159,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.4067796610169492</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3128,21 +3185,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.3846153846153846</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3154,21 +3211,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.3698630136986301</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3180,21 +3237,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.2950819672131147</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3206,21 +3263,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.265625</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3232,38 +3289,38 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K59">
-        <v>0.1388888888888889</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K60">
         <v>0.1129032258064516</v>
@@ -3289,16 +3346,16 @@
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K61">
-        <v>0.1027027027027027</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3310,21 +3367,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>166</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>0.05288461538461538</v>
+        <v>0.04011461318051576</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3336,59 +3393,59 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>394</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K63">
-        <v>0.04498269896193772</v>
+        <v>0.03373493975903614</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>276</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>0.01098211484154377</v>
+        <v>0.01190849263553745</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M64">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N64">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="O64">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
